--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AB/15/seed3/result_data_RandomForest.xlsx
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.22400000000001</v>
+        <v>-21.14920000000001</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.54929999999997</v>
+        <v>-20.51919999999997</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.48340000000003</v>
+        <v>-22.46660000000004</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>6.218499999999999</v>
+        <v>5.759699999999999</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.49450000000003</v>
+        <v>-22.31910000000003</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
